--- a/biology/Botanique/James_Cosmo_Melvill/James_Cosmo_Melvill.xlsx
+++ b/biology/Botanique/James_Cosmo_Melvill/James_Cosmo_Melvill.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Cosmo Melvill est un botaniste et un conchyliologiste britannique, né en 1845 et mort en 1929.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est Sir James Cosmo Melvill (1792-1861), sous-secrétaire d’État pour l’Inde. Il commence dès huit ans à collectionner les coquillages et rassemble une immense collection grâce à l'achat de nombreuses collections mises en vente à Londres. Melvill acquiert 56 collections dont celle de John Dennison (1???-1864) (1865), de Thomas Norris (17??-1852) (1873, 1874) et de Thomas Lombe Taylor (1802-1874) (1880).
 La collection de Melvill rassemblait plus de 22 500 espèces, la moitié des espèces connues à son époque et l’une des deux plus importantes collections privés jamais constituée. La collection de Melvill est elle-même acquise par John Read le Brockton Tomlin (1864-1954). Cette collection, mélangée à celle presque aussi riche de Tomin, est actuellement conservées par le Muséum national du Pays de Galles.
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il participe à The Flora of Harrow (Londres, 1864, réédité en 1876).
 Avec Robert Standen (1854-1925) et de James Hadfield (1864-1934), Catalogue of the Hadfield Collection of Shells from Lifu and Uvea, Loyalty Islands (Manchester Museum. Museum Handbooks, 1891).
